--- a/工作進度.xlsx
+++ b/工作進度.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10609"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{786CF57E-F643-DA4C-A366-D3677ECB112D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12260" yWindow="860" windowWidth="19080" windowHeight="13200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="10188" windowHeight="6348"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -15,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="47">
   <si>
     <t>姓名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -157,14 +156,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Label</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>完成5篇</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>W2V程式碼</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -198,17 +189,29 @@
   </si>
   <si>
     <t>完成書面報告</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>草擬機率運算架構</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蒐集市場實際數據</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -290,7 +293,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9">
-    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
@@ -382,23 +385,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -434,23 +420,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -626,24 +595,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.44140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.33203125" customWidth="1"/>
-    <col min="3" max="3" width="13.1640625" customWidth="1"/>
-    <col min="4" max="4" width="21.83203125" customWidth="1"/>
-    <col min="5" max="5" width="26.5" customWidth="1"/>
-    <col min="6" max="6" width="20.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.109375" customWidth="1"/>
+    <col min="4" max="4" width="21.77734375" customWidth="1"/>
+    <col min="5" max="5" width="26.44140625" customWidth="1"/>
+    <col min="6" max="6" width="20.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="18">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -663,7 +632,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>43791</v>
       </c>
@@ -683,7 +652,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>43792</v>
       </c>
@@ -703,7 +672,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>43793</v>
       </c>
@@ -723,7 +692,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>43793</v>
       </c>
@@ -743,7 +712,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>43797</v>
       </c>
@@ -763,7 +732,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>43798</v>
       </c>
@@ -783,7 +752,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>43798</v>
       </c>
@@ -791,7 +760,7 @@
         <v>6</v>
       </c>
       <c r="C8" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D8" t="s">
         <v>28</v>
@@ -803,7 +772,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>43800</v>
       </c>
@@ -823,7 +792,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>43808</v>
       </c>
@@ -843,7 +812,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>43808</v>
       </c>
@@ -854,16 +823,16 @@
         <v>34</v>
       </c>
       <c r="D11" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="E11" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="F11" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>43815</v>
       </c>
@@ -871,19 +840,19 @@
         <v>6</v>
       </c>
       <c r="C12" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D12" t="s">
         <v>28</v>
       </c>
       <c r="E12" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F12" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>43815</v>
       </c>
@@ -894,16 +863,16 @@
         <v>34</v>
       </c>
       <c r="D13" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="E13" t="s">
         <v>8</v>
       </c>
       <c r="F13" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>43816</v>
       </c>
@@ -911,19 +880,19 @@
         <v>6</v>
       </c>
       <c r="C14" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D14" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E14" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F14" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>43822</v>
       </c>
@@ -934,7 +903,7 @@
         <v>34</v>
       </c>
       <c r="D15" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E15" t="s">
         <v>15</v>
@@ -943,18 +912,18 @@
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>43823</v>
       </c>
       <c r="B16" t="s">
+        <v>41</v>
+      </c>
+      <c r="C16" t="s">
+        <v>42</v>
+      </c>
+      <c r="D16" t="s">
         <v>43</v>
-      </c>
-      <c r="C16" t="s">
-        <v>44</v>
-      </c>
-      <c r="D16" t="s">
-        <v>45</v>
       </c>
       <c r="E16" t="s">
         <v>8</v>
